--- a/ra_exploer/examples/PCT_TR2_All.xlsx
+++ b/ra_exploer/examples/PCT_TR2_All.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19170" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Adhesion_TR2_All" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhesion_TR2_All!$A$1:$I$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -56,10 +61,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SNP07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>7142T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -104,24 +105,28 @@
   </si>
   <si>
     <t>INX</t>
+  </si>
+  <si>
+    <t>S-NP07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -129,21 +134,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -591,21 +596,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
@@ -619,7 +624,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,13 +638,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -648,88 +653,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7">
         <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7">
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>7</v>
